--- a/BACKLOGS.xlsx
+++ b/BACKLOGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frostyl\Repozytoria\Text-transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE7019-E80B-4913-B4A4-8303B1339518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC04D2B-F376-4D33-A271-21667BBD0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>10h</t>
+  </si>
+  <si>
+    <t>Diagram Sekwencji</t>
   </si>
 </sst>
 </file>
@@ -431,22 +434,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
+      <xdr:colOff>97971</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>745952</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46885</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824651</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obraz 3">
+        <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4380BBC1-D5B0-00ED-C033-512C3261146B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A046B276-843B-A6EE-C1B9-0CB20D181688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -462,8 +465,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="533399"/>
-          <a:ext cx="8638095" cy="5914286"/>
+          <a:off x="8229600" y="511628"/>
+          <a:ext cx="6942422" cy="4732430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>844925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853E1F9B-F941-D77F-5653-4336EB3B2640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16078200" y="457200"/>
+          <a:ext cx="10446125" cy="5975741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,27 +870,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
     <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
